--- a/script_master_data/DED-IBase_Adopcion IA_v2a.xlsx
+++ b/script_master_data/DED-IBase_Adopcion IA_v2a.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F0BE144C-53DD-4126-97DA-BDA666AF587C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A4A4AE4-4F73-4867-9C48-17BF6D0B40C1}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{F0BE144C-53DD-4126-97DA-BDA666AF587C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61EB622A-51F6-4C2F-B9A2-A5DD11D8C0AC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdopcionIA" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -802,7 +800,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2384,7 +2382,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2446,7 +2444,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2592,7 +2590,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2769,7 +2767,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2919,7 +2917,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776388104"/>
@@ -3001,7 +2999,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3033,7 +3031,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776385544"/>
@@ -3098,7 +3096,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3130,7 +3128,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="114118151"/>
@@ -3190,7 +3188,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3220,7 +3218,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3296,7 +3294,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3347,7 +3345,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3495,7 +3493,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283272200"/>
@@ -3554,7 +3552,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283270152"/>
@@ -3595,7 +3593,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3671,7 +3669,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3722,7 +3720,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3878,7 +3876,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4034,7 +4032,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4325,7 +4323,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4496,7 +4494,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1838961159"/>
@@ -4555,7 +4553,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1400368647"/>
@@ -4597,7 +4595,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1400858119"/>
@@ -4657,7 +4655,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -4696,7 +4694,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4726,7 +4724,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4810,7 +4808,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4861,7 +4859,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4970,7 +4968,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5079,7 +5077,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5213,7 +5211,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="684009991"/>
@@ -5265,7 +5263,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5295,7 +5293,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5371,7 +5369,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5771,7 +5769,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5912,7 +5910,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6053,7 +6051,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -6112,7 +6110,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -6154,7 +6152,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -6214,7 +6212,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6244,7 +6242,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6320,7 +6318,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6741,7 +6739,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6897,7 +6895,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7038,7 +7036,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171074056"/>
@@ -7097,7 +7095,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171072008"/>
@@ -7139,7 +7137,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2097866760"/>
@@ -7199,7 +7197,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7229,7 +7227,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7305,7 +7303,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7705,7 +7703,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7846,7 +7844,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171074056"/>
@@ -7905,7 +7903,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171072008"/>
@@ -7947,7 +7945,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2097866760"/>
@@ -8007,7 +8005,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8037,7 +8035,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8113,7 +8111,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8530,7 +8528,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8687,7 +8685,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8828,7 +8826,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -8887,7 +8885,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -8929,7 +8927,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -8989,7 +8987,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9019,7 +9017,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9095,7 +9093,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9495,7 +9493,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9636,7 +9634,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9777,7 +9775,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -9836,7 +9834,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -9878,7 +9876,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -9938,7 +9936,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9968,7 +9966,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10044,7 +10042,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10461,7 +10459,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10618,7 +10616,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10759,7 +10757,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -10818,7 +10816,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -10860,7 +10858,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -10920,7 +10918,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10950,7 +10948,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11026,7 +11024,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11426,7 +11424,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11567,7 +11565,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11708,7 +11706,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -11767,7 +11765,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -11809,7 +11807,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -11869,7 +11867,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11899,7 +11897,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11975,7 +11973,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12376,7 +12374,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -12517,7 +12515,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -12658,7 +12656,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -12717,7 +12715,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -12759,7 +12757,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069212168"/>
@@ -12819,7 +12817,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12849,7 +12847,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -20159,30 +20157,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BR196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="1" customWidth="1"/>
-    <col min="7" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="41" width="9.140625" style="1"/>
-    <col min="42" max="42" width="94.42578125" style="132" customWidth="1"/>
-    <col min="43" max="43" width="29.140625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="1" customWidth="1"/>
+    <col min="7" max="11" width="9.1796875" style="1" customWidth="1"/>
+    <col min="12" max="41" width="9.1796875" style="1"/>
+    <col min="42" max="42" width="94.453125" style="132" customWidth="1"/>
+    <col min="43" max="43" width="29.1796875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:44" ht="12.75" customHeight="1">
+    <row r="1" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J1" s="1">
         <f>SUM(J6:J155)</f>
         <v>5.3999999999999986</v>
@@ -20216,17 +20214,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:44" ht="18.75">
+    <row r="2" spans="2:44" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:44" ht="15">
+    <row r="3" spans="2:44" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B3" s="82" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:44" s="2" customFormat="1" ht="15.75">
+    <row r="4" spans="2:44" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="G4" s="3"/>
       <c r="H4" s="4" t="s">
         <v>2</v>
@@ -20278,7 +20276,7 @@
       <c r="AO4" s="6"/>
       <c r="AP4" s="133"/>
     </row>
-    <row r="5" spans="2:44" ht="39" thickBot="1">
+    <row r="5" spans="2:44" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
@@ -20409,7 +20407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:44">
+    <row r="6" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>22</v>
       </c>
@@ -20474,7 +20472,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="7" spans="2:44">
+    <row r="7" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
@@ -20539,7 +20537,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="8" spans="2:44">
+    <row r="8" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
@@ -20610,7 +20608,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="9" spans="2:44">
+    <row r="9" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
@@ -20681,7 +20679,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="10" spans="2:44">
+    <row r="10" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
@@ -20752,7 +20750,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="11" spans="2:44">
+    <row r="11" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
@@ -20819,7 +20817,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="12" spans="2:44">
+    <row r="12" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
@@ -20886,7 +20884,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="13" spans="2:44">
+    <row r="13" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>22</v>
       </c>
@@ -20949,7 +20947,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="14" spans="2:44">
+    <row r="14" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
         <v>22</v>
       </c>
@@ -21012,7 +21010,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="15" spans="2:44">
+    <row r="15" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
@@ -21075,7 +21073,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="16" spans="2:44">
+    <row r="16" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
         <v>22</v>
       </c>
@@ -21142,7 +21140,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="17" spans="2:44">
+    <row r="17" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>22</v>
       </c>
@@ -21205,7 +21203,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="18" spans="2:44">
+    <row r="18" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>22</v>
       </c>
@@ -21268,7 +21266,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="19" spans="2:44">
+    <row r="19" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
         <v>22</v>
       </c>
@@ -21335,7 +21333,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="20" spans="2:44">
+    <row r="20" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B20" s="9" t="s">
         <v>22</v>
       </c>
@@ -21402,7 +21400,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="21" spans="2:44">
+    <row r="21" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B21" s="9" t="s">
         <v>22</v>
       </c>
@@ -21465,7 +21463,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="22" spans="2:44">
+    <row r="22" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
         <v>22</v>
       </c>
@@ -21532,7 +21530,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="23" spans="2:44">
+    <row r="23" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
         <v>22</v>
       </c>
@@ -21595,7 +21593,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="24" spans="2:44">
+    <row r="24" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B24" s="9" t="s">
         <v>22</v>
       </c>
@@ -21658,7 +21656,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="25" spans="2:44">
+    <row r="25" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B25" s="9" t="s">
         <v>22</v>
       </c>
@@ -21729,7 +21727,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="26" spans="2:44">
+    <row r="26" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>22</v>
       </c>
@@ -21800,7 +21798,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="27" spans="2:44">
+    <row r="27" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
         <v>22</v>
       </c>
@@ -21863,7 +21861,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="28" spans="2:44">
+    <row r="28" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B28" s="9" t="s">
         <v>22</v>
       </c>
@@ -21934,7 +21932,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="29" spans="2:44">
+    <row r="29" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B29" s="9" t="s">
         <v>22</v>
       </c>
@@ -22001,7 +21999,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="30" spans="2:44">
+    <row r="30" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B30" s="9" t="s">
         <v>22</v>
       </c>
@@ -22064,7 +22062,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="31" spans="2:44">
+    <row r="31" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B31" s="9" t="s">
         <v>22</v>
       </c>
@@ -22131,7 +22129,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="32" spans="2:44">
+    <row r="32" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B32" s="9" t="s">
         <v>22</v>
       </c>
@@ -22194,7 +22192,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="33" spans="2:44">
+    <row r="33" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B33" s="9" t="s">
         <v>22</v>
       </c>
@@ -22257,7 +22255,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="34" spans="2:44">
+    <row r="34" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
         <v>22</v>
       </c>
@@ -22322,7 +22320,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="35" spans="2:44">
+    <row r="35" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
         <v>22</v>
       </c>
@@ -22385,7 +22383,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="36" spans="2:44">
+    <row r="36" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B36" s="26" t="s">
         <v>22</v>
       </c>
@@ -22448,7 +22446,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="37" spans="2:44">
+    <row r="37" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B37" s="26" t="s">
         <v>22</v>
       </c>
@@ -22511,7 +22509,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="38" spans="2:44">
+    <row r="38" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B38" s="26" t="s">
         <v>22</v>
       </c>
@@ -22574,7 +22572,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="39" spans="2:44">
+    <row r="39" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B39" s="26" t="s">
         <v>22</v>
       </c>
@@ -22637,7 +22635,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="40" spans="2:44">
+    <row r="40" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B40" s="26" t="s">
         <v>22</v>
       </c>
@@ -22700,7 +22698,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="41" spans="2:44">
+    <row r="41" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B41" s="26" t="s">
         <v>22</v>
       </c>
@@ -22763,7 +22761,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="42" spans="2:44">
+    <row r="42" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B42" s="26" t="s">
         <v>22</v>
       </c>
@@ -22826,7 +22824,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="43" spans="2:44">
+    <row r="43" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B43" s="26" t="s">
         <v>22</v>
       </c>
@@ -22889,7 +22887,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="44" spans="2:44">
+    <row r="44" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B44" s="26" t="s">
         <v>22</v>
       </c>
@@ -22952,7 +22950,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="45" spans="2:44">
+    <row r="45" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B45" s="26" t="s">
         <v>22</v>
       </c>
@@ -23015,7 +23013,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="46" spans="2:44">
+    <row r="46" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B46" s="26" t="s">
         <v>22</v>
       </c>
@@ -23078,7 +23076,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="47" spans="2:44">
+    <row r="47" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B47" s="26" t="s">
         <v>22</v>
       </c>
@@ -23141,7 +23139,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="48" spans="2:44">
+    <row r="48" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B48" s="26" t="s">
         <v>22</v>
       </c>
@@ -23212,7 +23210,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="49" spans="2:44">
+    <row r="49" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B49" s="26" t="s">
         <v>22</v>
       </c>
@@ -23275,7 +23273,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="50" spans="2:44">
+    <row r="50" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B50" s="26" t="s">
         <v>22</v>
       </c>
@@ -23338,7 +23336,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="51" spans="2:44">
+    <row r="51" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B51" s="26" t="s">
         <v>22</v>
       </c>
@@ -23401,7 +23399,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="52" spans="2:44">
+    <row r="52" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B52" s="26" t="s">
         <v>22</v>
       </c>
@@ -23464,7 +23462,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="53" spans="2:44">
+    <row r="53" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B53" s="26" t="s">
         <v>22</v>
       </c>
@@ -23527,7 +23525,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="54" spans="2:44">
+    <row r="54" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B54" s="26" t="s">
         <v>22</v>
       </c>
@@ -23590,7 +23588,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="55" spans="2:44">
+    <row r="55" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B55" s="26" t="s">
         <v>22</v>
       </c>
@@ -23653,7 +23651,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="56" spans="2:44">
+    <row r="56" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B56" s="26" t="s">
         <v>22</v>
       </c>
@@ -23716,7 +23714,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="57" spans="2:44">
+    <row r="57" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B57" s="26" t="s">
         <v>22</v>
       </c>
@@ -23781,7 +23779,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="58" spans="2:44">
+    <row r="58" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B58" s="26" t="s">
         <v>22</v>
       </c>
@@ -23844,7 +23842,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="59" spans="2:44">
+    <row r="59" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B59" s="26" t="s">
         <v>22</v>
       </c>
@@ -23907,7 +23905,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="60" spans="2:44">
+    <row r="60" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B60" s="26" t="s">
         <v>22</v>
       </c>
@@ -23970,7 +23968,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="61" spans="2:44">
+    <row r="61" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B61" s="26" t="s">
         <v>22</v>
       </c>
@@ -24041,7 +24039,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="62" spans="2:44">
+    <row r="62" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B62" s="26" t="s">
         <v>22</v>
       </c>
@@ -24108,7 +24106,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="63" spans="2:44">
+    <row r="63" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B63" s="26" t="s">
         <v>22</v>
       </c>
@@ -24175,7 +24173,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="64" spans="2:44">
+    <row r="64" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B64" s="26" t="s">
         <v>22</v>
       </c>
@@ -24242,7 +24240,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="65" spans="2:44">
+    <row r="65" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B65" s="26" t="s">
         <v>22</v>
       </c>
@@ -24309,7 +24307,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="66" spans="2:44">
+    <row r="66" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B66" s="26" t="s">
         <v>22</v>
       </c>
@@ -24376,7 +24374,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="67" spans="2:44">
+    <row r="67" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B67" s="26" t="s">
         <v>22</v>
       </c>
@@ -24443,7 +24441,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="68" spans="2:44">
+    <row r="68" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B68" s="26" t="s">
         <v>22</v>
       </c>
@@ -24506,7 +24504,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="69" spans="2:44">
+    <row r="69" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B69" s="26" t="s">
         <v>22</v>
       </c>
@@ -24577,7 +24575,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="70" spans="2:44">
+    <row r="70" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B70" s="26" t="s">
         <v>22</v>
       </c>
@@ -24640,7 +24638,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="71" spans="2:44">
+    <row r="71" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B71" s="26" t="s">
         <v>22</v>
       </c>
@@ -24695,15 +24693,15 @@
       <c r="AO71" s="115"/>
       <c r="AP71" s="27"/>
       <c r="AQ71" s="28" t="str">
-        <f t="shared" ref="AQ71:AQ134" si="2">IF(OR(G71="S",L71="S",Q71="S",V71="S",AA71="S",AF71="S",AK71="S"),"S","N")</f>
+        <f t="shared" ref="AQ71:AQ75" si="2">IF(OR(G71="S",L71="S",Q71="S",V71="S",AA71="S",AF71="S",AK71="S"),"S","N")</f>
         <v>N</v>
       </c>
       <c r="AR71" s="28" t="str">
-        <f t="shared" ref="AR71:AR134" si="3">IF(OR(H71="S",M71="S",R71="S",W71="S",AB71="S",AG71="S",AL71="S"),"S","N")</f>
+        <f t="shared" ref="AR71:AR75" si="3">IF(OR(H71="S",M71="S",R71="S",W71="S",AB71="S",AG71="S",AL71="S"),"S","N")</f>
         <v>N</v>
       </c>
     </row>
-    <row r="72" spans="2:44">
+    <row r="72" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B72" s="26" t="s">
         <v>22</v>
       </c>
@@ -24774,7 +24772,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="73" spans="2:44">
+    <row r="73" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B73" s="26" t="s">
         <v>22</v>
       </c>
@@ -24845,7 +24843,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="74" spans="2:44">
+    <row r="74" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B74" s="26" t="s">
         <v>22</v>
       </c>
@@ -24916,7 +24914,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="75" spans="2:44">
+    <row r="75" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B75" s="26" t="s">
         <v>22</v>
       </c>
@@ -24987,7 +24985,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="76" spans="2:44">
+    <row r="76" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B76" s="9"/>
       <c r="C76" s="153"/>
       <c r="D76" s="10"/>
@@ -25026,7 +25024,7 @@
       <c r="AQ76" s="28"/>
       <c r="AR76" s="28"/>
     </row>
-    <row r="77" spans="2:44">
+    <row r="77" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B77" s="9"/>
       <c r="C77" s="153"/>
       <c r="D77" s="10"/>
@@ -25071,7 +25069,7 @@
       <c r="AQ77" s="28"/>
       <c r="AR77" s="28"/>
     </row>
-    <row r="78" spans="2:44">
+    <row r="78" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B78" s="9"/>
       <c r="C78" s="153"/>
       <c r="D78" s="10"/>
@@ -25116,7 +25114,7 @@
       <c r="AQ78" s="28"/>
       <c r="AR78" s="28"/>
     </row>
-    <row r="79" spans="2:44">
+    <row r="79" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B79" s="9"/>
       <c r="C79" s="153"/>
       <c r="D79" s="10"/>
@@ -25161,7 +25159,7 @@
       <c r="AQ79" s="28"/>
       <c r="AR79" s="28"/>
     </row>
-    <row r="80" spans="2:44">
+    <row r="80" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B80" s="9"/>
       <c r="C80" s="153"/>
       <c r="D80" s="10"/>
@@ -25206,7 +25204,7 @@
       <c r="AQ80" s="28"/>
       <c r="AR80" s="28"/>
     </row>
-    <row r="81" spans="2:44">
+    <row r="81" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B81" s="9"/>
       <c r="C81" s="153"/>
       <c r="D81" s="10"/>
@@ -25251,7 +25249,7 @@
       <c r="AQ81" s="28"/>
       <c r="AR81" s="28"/>
     </row>
-    <row r="82" spans="2:44">
+    <row r="82" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B82" s="9"/>
       <c r="C82" s="153"/>
       <c r="D82" s="10"/>
@@ -25296,7 +25294,7 @@
       <c r="AQ82" s="28"/>
       <c r="AR82" s="28"/>
     </row>
-    <row r="83" spans="2:44">
+    <row r="83" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B83" s="9"/>
       <c r="C83" s="153"/>
       <c r="D83" s="10"/>
@@ -25341,7 +25339,7 @@
       <c r="AQ83" s="28"/>
       <c r="AR83" s="28"/>
     </row>
-    <row r="84" spans="2:44">
+    <row r="84" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="153"/>
       <c r="D84" s="10"/>
@@ -25386,7 +25384,7 @@
       <c r="AQ84" s="28"/>
       <c r="AR84" s="28"/>
     </row>
-    <row r="85" spans="2:44">
+    <row r="85" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B85" s="9"/>
       <c r="C85" s="153"/>
       <c r="D85" s="10"/>
@@ -25431,7 +25429,7 @@
       <c r="AQ85" s="28"/>
       <c r="AR85" s="28"/>
     </row>
-    <row r="86" spans="2:44">
+    <row r="86" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B86" s="9"/>
       <c r="C86" s="153"/>
       <c r="D86" s="10"/>
@@ -25476,7 +25474,7 @@
       <c r="AQ86" s="28"/>
       <c r="AR86" s="28"/>
     </row>
-    <row r="87" spans="2:44">
+    <row r="87" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B87" s="9"/>
       <c r="C87" s="153"/>
       <c r="D87" s="10"/>
@@ -25521,7 +25519,7 @@
       <c r="AQ87" s="28"/>
       <c r="AR87" s="28"/>
     </row>
-    <row r="88" spans="2:44">
+    <row r="88" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B88" s="9"/>
       <c r="C88" s="153"/>
       <c r="D88" s="10"/>
@@ -25566,7 +25564,7 @@
       <c r="AQ88" s="28"/>
       <c r="AR88" s="28"/>
     </row>
-    <row r="89" spans="2:44">
+    <row r="89" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B89" s="9"/>
       <c r="C89" s="153"/>
       <c r="D89" s="10"/>
@@ -25611,7 +25609,7 @@
       <c r="AQ89" s="28"/>
       <c r="AR89" s="28"/>
     </row>
-    <row r="90" spans="2:44">
+    <row r="90" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B90" s="9"/>
       <c r="C90" s="153"/>
       <c r="D90" s="10"/>
@@ -25656,7 +25654,7 @@
       <c r="AQ90" s="28"/>
       <c r="AR90" s="28"/>
     </row>
-    <row r="91" spans="2:44">
+    <row r="91" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B91" s="9"/>
       <c r="C91" s="153"/>
       <c r="D91" s="10"/>
@@ -25701,7 +25699,7 @@
       <c r="AQ91" s="28"/>
       <c r="AR91" s="28"/>
     </row>
-    <row r="92" spans="2:44">
+    <row r="92" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B92" s="9"/>
       <c r="C92" s="153"/>
       <c r="D92" s="10"/>
@@ -25746,7 +25744,7 @@
       <c r="AQ92" s="28"/>
       <c r="AR92" s="28"/>
     </row>
-    <row r="93" spans="2:44">
+    <row r="93" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B93" s="9"/>
       <c r="C93" s="153"/>
       <c r="D93" s="10"/>
@@ -25791,7 +25789,7 @@
       <c r="AQ93" s="28"/>
       <c r="AR93" s="28"/>
     </row>
-    <row r="94" spans="2:44">
+    <row r="94" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B94" s="9"/>
       <c r="C94" s="153"/>
       <c r="D94" s="10"/>
@@ -25836,7 +25834,7 @@
       <c r="AQ94" s="28"/>
       <c r="AR94" s="28"/>
     </row>
-    <row r="95" spans="2:44" ht="15">
+    <row r="95" spans="2:44" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B95" s="9"/>
       <c r="C95" s="153"/>
       <c r="D95" s="10"/>
@@ -25881,7 +25879,7 @@
       <c r="AQ95" s="28"/>
       <c r="AR95" s="28"/>
     </row>
-    <row r="96" spans="2:44" ht="15">
+    <row r="96" spans="2:44" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B96" s="9"/>
       <c r="C96" s="153"/>
       <c r="D96" s="10"/>
@@ -25926,7 +25924,7 @@
       <c r="AQ96" s="28"/>
       <c r="AR96" s="28"/>
     </row>
-    <row r="97" spans="2:44">
+    <row r="97" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B97" s="9"/>
       <c r="C97" s="153"/>
       <c r="D97" s="10"/>
@@ -25971,7 +25969,7 @@
       <c r="AQ97" s="28"/>
       <c r="AR97" s="28"/>
     </row>
-    <row r="98" spans="2:44">
+    <row r="98" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="153"/>
       <c r="D98" s="10"/>
@@ -26016,7 +26014,7 @@
       <c r="AQ98" s="28"/>
       <c r="AR98" s="28"/>
     </row>
-    <row r="99" spans="2:44">
+    <row r="99" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B99" s="9"/>
       <c r="C99" s="153"/>
       <c r="D99" s="10"/>
@@ -26061,7 +26059,7 @@
       <c r="AQ99" s="28"/>
       <c r="AR99" s="28"/>
     </row>
-    <row r="100" spans="2:44">
+    <row r="100" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B100" s="9"/>
       <c r="C100" s="153"/>
       <c r="D100" s="10"/>
@@ -26106,7 +26104,7 @@
       <c r="AQ100" s="28"/>
       <c r="AR100" s="28"/>
     </row>
-    <row r="101" spans="2:44" ht="45.75" customHeight="1">
+    <row r="101" spans="2:44" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="9"/>
       <c r="C101" s="153"/>
       <c r="D101" s="10"/>
@@ -26151,7 +26149,7 @@
       <c r="AQ101" s="28"/>
       <c r="AR101" s="28"/>
     </row>
-    <row r="102" spans="2:44">
+    <row r="102" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B102" s="9"/>
       <c r="C102" s="153"/>
       <c r="D102" s="10"/>
@@ -26196,7 +26194,7 @@
       <c r="AQ102" s="28"/>
       <c r="AR102" s="28"/>
     </row>
-    <row r="103" spans="2:44">
+    <row r="103" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B103" s="9"/>
       <c r="C103" s="153"/>
       <c r="D103" s="10"/>
@@ -26241,7 +26239,7 @@
       <c r="AQ103" s="28"/>
       <c r="AR103" s="28"/>
     </row>
-    <row r="104" spans="2:44">
+    <row r="104" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B104" s="9"/>
       <c r="C104" s="153"/>
       <c r="D104" s="10"/>
@@ -26286,7 +26284,7 @@
       <c r="AQ104" s="28"/>
       <c r="AR104" s="28"/>
     </row>
-    <row r="105" spans="2:44">
+    <row r="105" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B105" s="9"/>
       <c r="C105" s="153"/>
       <c r="D105" s="10"/>
@@ -26331,7 +26329,7 @@
       <c r="AQ105" s="28"/>
       <c r="AR105" s="28"/>
     </row>
-    <row r="106" spans="2:44">
+    <row r="106" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B106" s="9"/>
       <c r="C106" s="153"/>
       <c r="D106" s="10"/>
@@ -26376,7 +26374,7 @@
       <c r="AQ106" s="28"/>
       <c r="AR106" s="28"/>
     </row>
-    <row r="107" spans="2:44">
+    <row r="107" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B107" s="9"/>
       <c r="C107" s="153"/>
       <c r="D107" s="10"/>
@@ -26421,7 +26419,7 @@
       <c r="AQ107" s="28"/>
       <c r="AR107" s="28"/>
     </row>
-    <row r="108" spans="2:44">
+    <row r="108" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B108" s="9"/>
       <c r="C108" s="153"/>
       <c r="D108" s="10"/>
@@ -26466,7 +26464,7 @@
       <c r="AQ108" s="28"/>
       <c r="AR108" s="28"/>
     </row>
-    <row r="109" spans="2:44" ht="12.75" customHeight="1">
+    <row r="109" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="9"/>
       <c r="C109" s="153"/>
       <c r="D109" s="10"/>
@@ -26511,7 +26509,7 @@
       <c r="AQ109" s="28"/>
       <c r="AR109" s="28"/>
     </row>
-    <row r="110" spans="2:44" ht="12.75" customHeight="1">
+    <row r="110" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="9"/>
       <c r="C110" s="153"/>
       <c r="D110" s="10"/>
@@ -26556,7 +26554,7 @@
       <c r="AQ110" s="28"/>
       <c r="AR110" s="28"/>
     </row>
-    <row r="111" spans="2:44" ht="12.75" customHeight="1">
+    <row r="111" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="9"/>
       <c r="C111" s="153"/>
       <c r="D111" s="10"/>
@@ -26601,7 +26599,7 @@
       <c r="AQ111" s="28"/>
       <c r="AR111" s="28"/>
     </row>
-    <row r="112" spans="2:44" ht="28.5" customHeight="1">
+    <row r="112" spans="2:44" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="153"/>
       <c r="D112" s="10"/>
@@ -26646,7 +26644,7 @@
       <c r="AQ112" s="28"/>
       <c r="AR112" s="28"/>
     </row>
-    <row r="113" spans="2:70" ht="12.75" customHeight="1">
+    <row r="113" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="9"/>
       <c r="C113" s="153"/>
       <c r="D113" s="10"/>
@@ -26691,7 +26689,7 @@
       <c r="AQ113" s="28"/>
       <c r="AR113" s="28"/>
     </row>
-    <row r="114" spans="2:70" ht="12.75" customHeight="1">
+    <row r="114" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="9"/>
       <c r="C114" s="153"/>
       <c r="D114" s="10"/>
@@ -26736,7 +26734,7 @@
       <c r="AQ114" s="28"/>
       <c r="AR114" s="28"/>
     </row>
-    <row r="115" spans="2:70" ht="12.75" customHeight="1">
+    <row r="115" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="9"/>
       <c r="C115" s="153"/>
       <c r="D115" s="10"/>
@@ -26781,7 +26779,7 @@
       <c r="AQ115" s="28"/>
       <c r="AR115" s="28"/>
     </row>
-    <row r="116" spans="2:70" ht="12.75" customHeight="1">
+    <row r="116" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="9"/>
       <c r="C116" s="153"/>
       <c r="D116" s="10"/>
@@ -26826,7 +26824,7 @@
       <c r="AQ116" s="28"/>
       <c r="AR116" s="28"/>
     </row>
-    <row r="117" spans="2:70" ht="12.75" customHeight="1">
+    <row r="117" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="9"/>
       <c r="C117" s="153"/>
       <c r="D117" s="10"/>
@@ -26871,7 +26869,7 @@
       <c r="AQ117" s="28"/>
       <c r="AR117" s="28"/>
     </row>
-    <row r="118" spans="2:70" ht="12.75" customHeight="1">
+    <row r="118" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="9"/>
       <c r="C118" s="153"/>
       <c r="D118" s="10"/>
@@ -26916,7 +26914,7 @@
       <c r="AQ118" s="28"/>
       <c r="AR118" s="28"/>
     </row>
-    <row r="119" spans="2:70" ht="12.75" customHeight="1">
+    <row r="119" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="9"/>
       <c r="C119" s="153"/>
       <c r="D119" s="10"/>
@@ -26961,7 +26959,7 @@
       <c r="AQ119" s="28"/>
       <c r="AR119" s="28"/>
     </row>
-    <row r="120" spans="2:70" ht="12.75" customHeight="1">
+    <row r="120" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="9"/>
       <c r="C120" s="153"/>
       <c r="D120" s="10"/>
@@ -27006,7 +27004,7 @@
       <c r="AQ120" s="28"/>
       <c r="AR120" s="28"/>
     </row>
-    <row r="121" spans="2:70" ht="42.75" customHeight="1">
+    <row r="121" spans="2:70" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="9"/>
       <c r="C121" s="153"/>
       <c r="D121" s="10"/>
@@ -27051,7 +27049,7 @@
       <c r="AQ121" s="28"/>
       <c r="AR121" s="28"/>
     </row>
-    <row r="122" spans="2:70" ht="12.75" customHeight="1">
+    <row r="122" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="9"/>
       <c r="C122" s="153"/>
       <c r="D122" s="10"/>
@@ -27096,7 +27094,7 @@
       <c r="AQ122" s="28"/>
       <c r="AR122" s="28"/>
     </row>
-    <row r="123" spans="2:70" ht="12.75" customHeight="1">
+    <row r="123" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="9"/>
       <c r="C123" s="153"/>
       <c r="D123" s="10"/>
@@ -27167,7 +27165,7 @@
       <c r="BQ123" s="106"/>
       <c r="BR123" s="106"/>
     </row>
-    <row r="124" spans="2:70" ht="12.75" customHeight="1">
+    <row r="124" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="9"/>
       <c r="C124" s="153"/>
       <c r="D124" s="10"/>
@@ -27212,7 +27210,7 @@
       <c r="AQ124" s="28"/>
       <c r="AR124" s="28"/>
     </row>
-    <row r="125" spans="2:70" ht="12.75" customHeight="1">
+    <row r="125" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="9"/>
       <c r="C125" s="153"/>
       <c r="D125" s="10"/>
@@ -27257,7 +27255,7 @@
       <c r="AQ125" s="28"/>
       <c r="AR125" s="28"/>
     </row>
-    <row r="126" spans="2:70" ht="12.75" customHeight="1">
+    <row r="126" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="153"/>
       <c r="D126" s="10"/>
@@ -27302,7 +27300,7 @@
       <c r="AQ126" s="28"/>
       <c r="AR126" s="28"/>
     </row>
-    <row r="127" spans="2:70" ht="12.75" customHeight="1">
+    <row r="127" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="9"/>
       <c r="C127" s="153"/>
       <c r="D127" s="10"/>
@@ -27347,7 +27345,7 @@
       <c r="AQ127" s="28"/>
       <c r="AR127" s="28"/>
     </row>
-    <row r="128" spans="2:70" ht="12.75" customHeight="1">
+    <row r="128" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="9"/>
       <c r="C128" s="153"/>
       <c r="D128" s="10"/>
@@ -27392,7 +27390,7 @@
       <c r="AQ128" s="28"/>
       <c r="AR128" s="28"/>
     </row>
-    <row r="129" spans="2:44" ht="12.75" customHeight="1">
+    <row r="129" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="9"/>
       <c r="C129" s="153"/>
       <c r="D129" s="10"/>
@@ -27437,7 +27435,7 @@
       <c r="AQ129" s="28"/>
       <c r="AR129" s="28"/>
     </row>
-    <row r="130" spans="2:44" ht="27" customHeight="1">
+    <row r="130" spans="2:44" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="9"/>
       <c r="C130" s="153"/>
       <c r="D130" s="10"/>
@@ -27482,7 +27480,7 @@
       <c r="AQ130" s="28"/>
       <c r="AR130" s="28"/>
     </row>
-    <row r="131" spans="2:44" ht="12.75" customHeight="1">
+    <row r="131" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="9"/>
       <c r="C131" s="153"/>
       <c r="D131" s="10"/>
@@ -27527,7 +27525,7 @@
       <c r="AQ131" s="28"/>
       <c r="AR131" s="28"/>
     </row>
-    <row r="132" spans="2:44" ht="12.75" customHeight="1">
+    <row r="132" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="9"/>
       <c r="C132" s="153"/>
       <c r="D132" s="10"/>
@@ -27572,7 +27570,7 @@
       <c r="AQ132" s="28"/>
       <c r="AR132" s="28"/>
     </row>
-    <row r="133" spans="2:44" ht="12.75" customHeight="1">
+    <row r="133" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="9"/>
       <c r="C133" s="153"/>
       <c r="D133" s="10"/>
@@ -27617,7 +27615,7 @@
       <c r="AQ133" s="28"/>
       <c r="AR133" s="28"/>
     </row>
-    <row r="134" spans="2:44" ht="12.75" customHeight="1">
+    <row r="134" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="9"/>
       <c r="C134" s="153"/>
       <c r="D134" s="10"/>
@@ -27662,7 +27660,7 @@
       <c r="AQ134" s="28"/>
       <c r="AR134" s="28"/>
     </row>
-    <row r="135" spans="2:44" ht="12.75" customHeight="1">
+    <row r="135" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="9"/>
       <c r="C135" s="153"/>
       <c r="D135" s="10"/>
@@ -27707,7 +27705,7 @@
       <c r="AQ135" s="28"/>
       <c r="AR135" s="28"/>
     </row>
-    <row r="136" spans="2:44" ht="12.75" customHeight="1">
+    <row r="136" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="9"/>
       <c r="C136" s="153"/>
       <c r="D136" s="10"/>
@@ -27752,7 +27750,7 @@
       <c r="AQ136" s="28"/>
       <c r="AR136" s="28"/>
     </row>
-    <row r="137" spans="2:44" ht="12.75" customHeight="1">
+    <row r="137" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="9"/>
       <c r="C137" s="153"/>
       <c r="D137" s="10"/>
@@ -27797,7 +27795,7 @@
       <c r="AQ137" s="28"/>
       <c r="AR137" s="28"/>
     </row>
-    <row r="138" spans="2:44" ht="12.75" customHeight="1">
+    <row r="138" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="9"/>
       <c r="C138" s="153"/>
       <c r="D138" s="10"/>
@@ -27842,7 +27840,7 @@
       <c r="AQ138" s="28"/>
       <c r="AR138" s="28"/>
     </row>
-    <row r="139" spans="2:44" ht="12.75" customHeight="1">
+    <row r="139" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="9"/>
       <c r="C139" s="153"/>
       <c r="D139" s="10"/>
@@ -27887,7 +27885,7 @@
       <c r="AQ139" s="28"/>
       <c r="AR139" s="28"/>
     </row>
-    <row r="140" spans="2:44" ht="12.75" customHeight="1">
+    <row r="140" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="153"/>
       <c r="D140" s="10"/>
@@ -27932,7 +27930,7 @@
       <c r="AQ140" s="28"/>
       <c r="AR140" s="28"/>
     </row>
-    <row r="141" spans="2:44" ht="12.75" customHeight="1">
+    <row r="141" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="9"/>
       <c r="C141" s="153"/>
       <c r="D141" s="10"/>
@@ -27977,7 +27975,7 @@
       <c r="AQ141" s="28"/>
       <c r="AR141" s="28"/>
     </row>
-    <row r="142" spans="2:44" ht="12.75" customHeight="1">
+    <row r="142" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="9"/>
       <c r="C142" s="153"/>
       <c r="D142" s="10"/>
@@ -28022,7 +28020,7 @@
       <c r="AQ142" s="28"/>
       <c r="AR142" s="28"/>
     </row>
-    <row r="143" spans="2:44" ht="45.75" customHeight="1">
+    <row r="143" spans="2:44" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="9"/>
       <c r="C143" s="153"/>
       <c r="D143" s="10"/>
@@ -28067,7 +28065,7 @@
       <c r="AQ143" s="28"/>
       <c r="AR143" s="28"/>
     </row>
-    <row r="144" spans="2:44" ht="12.75" customHeight="1">
+    <row r="144" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="9"/>
       <c r="C144" s="153"/>
       <c r="D144" s="10"/>
@@ -28112,7 +28110,7 @@
       <c r="AQ144" s="28"/>
       <c r="AR144" s="28"/>
     </row>
-    <row r="145" spans="2:44" ht="12.75" customHeight="1">
+    <row r="145" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="9"/>
       <c r="C145" s="153"/>
       <c r="D145" s="10"/>
@@ -28157,7 +28155,7 @@
       <c r="AQ145" s="28"/>
       <c r="AR145" s="28"/>
     </row>
-    <row r="146" spans="2:44" ht="48" customHeight="1">
+    <row r="146" spans="2:44" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="9"/>
       <c r="C146" s="153"/>
       <c r="D146" s="10"/>
@@ -28202,7 +28200,7 @@
       <c r="AQ146" s="28"/>
       <c r="AR146" s="28"/>
     </row>
-    <row r="147" spans="2:44" ht="19.5" customHeight="1">
+    <row r="147" spans="2:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="9"/>
       <c r="C147" s="153"/>
       <c r="D147" s="10"/>
@@ -28247,7 +28245,7 @@
       <c r="AQ147" s="28"/>
       <c r="AR147" s="28"/>
     </row>
-    <row r="148" spans="2:44" ht="12.75" customHeight="1">
+    <row r="148" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="9"/>
       <c r="C148" s="153"/>
       <c r="D148" s="10"/>
@@ -28292,7 +28290,7 @@
       <c r="AQ148" s="28"/>
       <c r="AR148" s="28"/>
     </row>
-    <row r="149" spans="2:44" ht="12.75" customHeight="1">
+    <row r="149" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="9"/>
       <c r="C149" s="153"/>
       <c r="D149" s="10"/>
@@ -28337,7 +28335,7 @@
       <c r="AQ149" s="28"/>
       <c r="AR149" s="28"/>
     </row>
-    <row r="150" spans="2:44" ht="12.75" customHeight="1">
+    <row r="150" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="9"/>
       <c r="C150" s="153"/>
       <c r="D150" s="10"/>
@@ -28382,7 +28380,7 @@
       <c r="AQ150" s="28"/>
       <c r="AR150" s="28"/>
     </row>
-    <row r="151" spans="2:44" ht="12.75" customHeight="1">
+    <row r="151" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="9"/>
       <c r="C151" s="153"/>
       <c r="D151" s="10"/>
@@ -28427,7 +28425,7 @@
       <c r="AQ151" s="28"/>
       <c r="AR151" s="28"/>
     </row>
-    <row r="152" spans="2:44" ht="12.75" customHeight="1">
+    <row r="152" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="9"/>
       <c r="C152" s="153"/>
       <c r="D152" s="10"/>
@@ -28472,7 +28470,7 @@
       <c r="AQ152" s="28"/>
       <c r="AR152" s="28"/>
     </row>
-    <row r="153" spans="2:44" ht="12.75" customHeight="1">
+    <row r="153" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="9"/>
       <c r="C153" s="153"/>
       <c r="D153" s="10"/>
@@ -28517,7 +28515,7 @@
       <c r="AQ153" s="28"/>
       <c r="AR153" s="28"/>
     </row>
-    <row r="154" spans="2:44" ht="12.75" customHeight="1">
+    <row r="154" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
       <c r="C154" s="153"/>
       <c r="D154" s="10"/>
@@ -28562,7 +28560,7 @@
       <c r="AQ154" s="28"/>
       <c r="AR154" s="28"/>
     </row>
-    <row r="155" spans="2:44" ht="12.75" customHeight="1">
+    <row r="155" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="9"/>
       <c r="C155" s="153"/>
       <c r="D155" s="10"/>
@@ -28607,7 +28605,7 @@
       <c r="AQ155" s="28"/>
       <c r="AR155" s="28"/>
     </row>
-    <row r="156" spans="2:44" ht="12.75" customHeight="1">
+    <row r="156" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="9"/>
       <c r="C156" s="153"/>
       <c r="D156" s="10"/>
@@ -28652,7 +28650,7 @@
       <c r="AQ156" s="28"/>
       <c r="AR156" s="28"/>
     </row>
-    <row r="157" spans="2:44" ht="12.75" customHeight="1">
+    <row r="157" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="9"/>
       <c r="C157" s="153"/>
       <c r="D157" s="10"/>
@@ -28697,7 +28695,7 @@
       <c r="AQ157" s="28"/>
       <c r="AR157" s="28"/>
     </row>
-    <row r="158" spans="2:44" ht="12.75" customHeight="1">
+    <row r="158" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="9"/>
       <c r="C158" s="153"/>
       <c r="D158" s="10"/>
@@ -28742,7 +28740,7 @@
       <c r="AQ158" s="28"/>
       <c r="AR158" s="28"/>
     </row>
-    <row r="159" spans="2:44" ht="12.75" customHeight="1">
+    <row r="159" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="9"/>
       <c r="C159" s="153"/>
       <c r="D159" s="10"/>
@@ -28787,7 +28785,7 @@
       <c r="AQ159" s="28"/>
       <c r="AR159" s="28"/>
     </row>
-    <row r="160" spans="2:44" ht="12.75" customHeight="1">
+    <row r="160" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="9"/>
       <c r="C160" s="153"/>
       <c r="D160" s="10"/>
@@ -28832,7 +28830,7 @@
       <c r="AQ160" s="28"/>
       <c r="AR160" s="28"/>
     </row>
-    <row r="161" spans="2:44" ht="12.75" customHeight="1">
+    <row r="161" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="9"/>
       <c r="C161" s="153"/>
       <c r="D161" s="10"/>
@@ -28877,7 +28875,7 @@
       <c r="AQ161" s="28"/>
       <c r="AR161" s="28"/>
     </row>
-    <row r="162" spans="2:44" ht="12.75" customHeight="1">
+    <row r="162" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="9"/>
       <c r="C162" s="153"/>
       <c r="D162" s="10"/>
@@ -28922,7 +28920,7 @@
       <c r="AQ162" s="28"/>
       <c r="AR162" s="28"/>
     </row>
-    <row r="163" spans="2:44" ht="12.75" customHeight="1">
+    <row r="163" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="9"/>
       <c r="C163" s="153"/>
       <c r="D163" s="10"/>
@@ -28967,7 +28965,7 @@
       <c r="AQ163" s="28"/>
       <c r="AR163" s="28"/>
     </row>
-    <row r="164" spans="2:44" ht="12.75" customHeight="1">
+    <row r="164" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="9"/>
       <c r="C164" s="153"/>
       <c r="D164" s="10"/>
@@ -29012,7 +29010,7 @@
       <c r="AQ164" s="28"/>
       <c r="AR164" s="28"/>
     </row>
-    <row r="165" spans="2:44" ht="12.75" customHeight="1">
+    <row r="165" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="9"/>
       <c r="C165" s="153"/>
       <c r="D165" s="10"/>
@@ -29057,7 +29055,7 @@
       <c r="AQ165" s="28"/>
       <c r="AR165" s="28"/>
     </row>
-    <row r="166" spans="2:44" ht="12.75" customHeight="1">
+    <row r="166" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="9"/>
       <c r="C166" s="153"/>
       <c r="D166" s="10"/>
@@ -29102,7 +29100,7 @@
       <c r="AQ166" s="28"/>
       <c r="AR166" s="28"/>
     </row>
-    <row r="167" spans="2:44" ht="12.75" customHeight="1">
+    <row r="167" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="9"/>
       <c r="C167" s="153"/>
       <c r="D167" s="10"/>
@@ -29147,7 +29145,7 @@
       <c r="AQ167" s="28"/>
       <c r="AR167" s="28"/>
     </row>
-    <row r="168" spans="2:44" ht="12.75" customHeight="1">
+    <row r="168" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="9"/>
       <c r="C168" s="153"/>
       <c r="D168" s="10"/>
@@ -29192,7 +29190,7 @@
       <c r="AQ168" s="28"/>
       <c r="AR168" s="28"/>
     </row>
-    <row r="169" spans="2:44" ht="12.75" customHeight="1">
+    <row r="169" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="9"/>
       <c r="C169" s="153"/>
       <c r="D169" s="10"/>
@@ -29237,7 +29235,7 @@
       <c r="AQ169" s="28"/>
       <c r="AR169" s="28"/>
     </row>
-    <row r="170" spans="2:44" ht="12.75" customHeight="1">
+    <row r="170" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="9"/>
       <c r="C170" s="153"/>
       <c r="D170" s="10"/>
@@ -29282,7 +29280,7 @@
       <c r="AQ170" s="28"/>
       <c r="AR170" s="28"/>
     </row>
-    <row r="171" spans="2:44" ht="12.75" customHeight="1">
+    <row r="171" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="9"/>
       <c r="C171" s="153"/>
       <c r="D171" s="10"/>
@@ -29327,7 +29325,7 @@
       <c r="AQ171" s="28"/>
       <c r="AR171" s="28"/>
     </row>
-    <row r="172" spans="2:44" ht="12.75" customHeight="1">
+    <row r="172" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="9"/>
       <c r="C172" s="153"/>
       <c r="D172" s="10"/>
@@ -29372,7 +29370,7 @@
       <c r="AQ172" s="28"/>
       <c r="AR172" s="28"/>
     </row>
-    <row r="173" spans="2:44" ht="12.75" customHeight="1">
+    <row r="173" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="9"/>
       <c r="C173" s="153"/>
       <c r="D173" s="10"/>
@@ -29417,7 +29415,7 @@
       <c r="AQ173" s="28"/>
       <c r="AR173" s="28"/>
     </row>
-    <row r="174" spans="2:44" ht="12.75" customHeight="1">
+    <row r="174" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="9"/>
       <c r="C174" s="153"/>
       <c r="D174" s="10"/>
@@ -29462,7 +29460,7 @@
       <c r="AQ174" s="28"/>
       <c r="AR174" s="28"/>
     </row>
-    <row r="175" spans="2:44" ht="12.75" customHeight="1">
+    <row r="175" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="9"/>
       <c r="C175" s="153"/>
       <c r="D175" s="10"/>
@@ -29507,7 +29505,7 @@
       <c r="AQ175" s="28"/>
       <c r="AR175" s="28"/>
     </row>
-    <row r="176" spans="2:44" ht="12.75" customHeight="1">
+    <row r="176" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="9"/>
       <c r="C176" s="153"/>
       <c r="D176" s="10"/>
@@ -29552,7 +29550,7 @@
       <c r="AQ176" s="28"/>
       <c r="AR176" s="28"/>
     </row>
-    <row r="177" spans="2:44" ht="12.75" customHeight="1">
+    <row r="177" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="9"/>
       <c r="C177" s="153"/>
       <c r="D177" s="10"/>
@@ -29597,7 +29595,7 @@
       <c r="AQ177" s="28"/>
       <c r="AR177" s="28"/>
     </row>
-    <row r="178" spans="2:44" ht="12.75" customHeight="1">
+    <row r="178" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="9"/>
       <c r="C178" s="153"/>
       <c r="D178" s="10"/>
@@ -29642,75 +29640,75 @@
       <c r="AQ178" s="28"/>
       <c r="AR178" s="28"/>
     </row>
-    <row r="179" spans="2:44" ht="12.75" customHeight="1">
+    <row r="179" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ179" s="28"/>
       <c r="AR179" s="28"/>
     </row>
-    <row r="180" spans="2:44" ht="12.75" customHeight="1">
+    <row r="180" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ180" s="28"/>
       <c r="AR180" s="28"/>
     </row>
-    <row r="181" spans="2:44" ht="12.75" customHeight="1">
+    <row r="181" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ181" s="28"/>
       <c r="AR181" s="28"/>
     </row>
-    <row r="182" spans="2:44" ht="12.75" customHeight="1">
+    <row r="182" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ182" s="28"/>
       <c r="AR182" s="28"/>
     </row>
-    <row r="183" spans="2:44" ht="12.75" customHeight="1">
+    <row r="183" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ183" s="28"/>
       <c r="AR183" s="28"/>
     </row>
-    <row r="184" spans="2:44" ht="12.75" customHeight="1">
+    <row r="184" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ184" s="28"/>
       <c r="AR184" s="28"/>
     </row>
-    <row r="185" spans="2:44" ht="12.75" customHeight="1">
+    <row r="185" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ185" s="28"/>
       <c r="AR185" s="28"/>
     </row>
-    <row r="186" spans="2:44" ht="12.75" customHeight="1">
+    <row r="186" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ186" s="28"/>
       <c r="AR186" s="28"/>
     </row>
-    <row r="187" spans="2:44" ht="12.75" customHeight="1">
+    <row r="187" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ187" s="28"/>
       <c r="AR187" s="28"/>
     </row>
-    <row r="188" spans="2:44" ht="12.75" customHeight="1">
+    <row r="188" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ188" s="28"/>
       <c r="AR188" s="28"/>
     </row>
-    <row r="189" spans="2:44" ht="12.75" customHeight="1">
+    <row r="189" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ189" s="28"/>
       <c r="AR189" s="28"/>
     </row>
-    <row r="190" spans="2:44" ht="12.75" customHeight="1">
+    <row r="190" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ190" s="28"/>
       <c r="AR190" s="28"/>
     </row>
-    <row r="191" spans="2:44" ht="12.75" customHeight="1">
+    <row r="191" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ191" s="28"/>
       <c r="AR191" s="28"/>
     </row>
-    <row r="192" spans="2:44" ht="12.75" customHeight="1">
+    <row r="192" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ192" s="28"/>
       <c r="AR192" s="28"/>
     </row>
-    <row r="193" spans="43:44" ht="12.75" customHeight="1">
+    <row r="193" spans="43:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ193" s="28"/>
       <c r="AR193" s="28"/>
     </row>
-    <row r="194" spans="43:44" ht="12.75" customHeight="1">
+    <row r="194" spans="43:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ194" s="28"/>
       <c r="AR194" s="28"/>
     </row>
-    <row r="195" spans="43:44" ht="12.75" customHeight="1">
+    <row r="195" spans="43:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ195" s="28"/>
       <c r="AR195" s="28"/>
     </row>
-    <row r="196" spans="43:44" ht="12.75" customHeight="1">
+    <row r="196" spans="43:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ196" s="28"/>
       <c r="AR196" s="28"/>
     </row>
@@ -29828,77 +29826,77 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="95" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="95" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="19">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="19">
         <v>10</v>
       </c>
@@ -29916,25 +29914,25 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="12" width="37.28515625" customWidth="1"/>
+    <col min="3" max="12" width="37.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E3" s="162" t="s">
         <v>177</v>
       </c>
       <c r="F3" s="162"/>
       <c r="G3" s="162"/>
     </row>
-    <row r="5" spans="3:12" ht="18.75">
+    <row r="5" spans="3:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="J5" s="163" t="s">
         <v>178</v>
       </c>
       <c r="K5" s="164"/>
     </row>
-    <row r="6" spans="3:12" ht="19.5" thickBot="1">
+    <row r="6" spans="3:12" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="30" t="s">
         <v>179</v>
       </c>
@@ -29966,7 +29964,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="3:12" ht="60">
+    <row r="7" spans="3:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C7" s="165" t="s">
         <v>189</v>
       </c>
@@ -29988,7 +29986,7 @@
       <c r="K7" s="79"/>
       <c r="L7" s="80"/>
     </row>
-    <row r="8" spans="3:12" ht="75">
+    <row r="8" spans="3:12" ht="58" x14ac:dyDescent="0.35">
       <c r="C8" s="166"/>
       <c r="D8" s="79" t="s">
         <v>194</v>
@@ -30008,7 +30006,7 @@
       <c r="K8" s="79"/>
       <c r="L8" s="33"/>
     </row>
-    <row r="9" spans="3:12">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C9" s="166"/>
       <c r="D9" s="79"/>
       <c r="E9" s="79"/>
@@ -30020,7 +30018,7 @@
       <c r="K9" s="79"/>
       <c r="L9" s="81"/>
     </row>
-    <row r="10" spans="3:12">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C10" s="166"/>
       <c r="D10" s="79"/>
       <c r="E10" s="79"/>
@@ -30032,7 +30030,7 @@
       <c r="K10" s="79"/>
       <c r="L10" s="19"/>
     </row>
-    <row r="11" spans="3:12">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C11" s="166"/>
       <c r="D11" s="79"/>
       <c r="E11" s="79"/>
@@ -30044,7 +30042,7 @@
       <c r="K11" s="79"/>
       <c r="L11" s="19"/>
     </row>
-    <row r="12" spans="3:12">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C12" s="166"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -30056,7 +30054,7 @@
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="3:12">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C13" s="166"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -30068,7 +30066,7 @@
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="3:12">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C14" s="166"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -30080,7 +30078,7 @@
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
     </row>
-    <row r="15" spans="3:12">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C15" s="166"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -30092,7 +30090,7 @@
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
     </row>
-    <row r="16" spans="3:12">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C16" s="166"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -30104,7 +30102,7 @@
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C17" s="166"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -30116,7 +30114,7 @@
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C18" s="166"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -30128,7 +30126,7 @@
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C19" s="166"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -30140,7 +30138,7 @@
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
     </row>
-    <row r="23" spans="3:12">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>198</v>
       </c>
@@ -30163,87 +30161,87 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="16" width="9.42578125" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.28515625" customWidth="1"/>
-    <col min="28" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.7109375" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.5703125" customWidth="1"/>
-    <col min="36" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.7109375" customWidth="1"/>
-    <col min="39" max="39" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" customWidth="1"/>
-    <col min="44" max="44" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.7109375" customWidth="1"/>
-    <col min="47" max="47" width="19.42578125" customWidth="1"/>
-    <col min="48" max="48" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.5703125" customWidth="1"/>
-    <col min="52" max="52" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.7109375" customWidth="1"/>
-    <col min="55" max="55" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.28515625" customWidth="1"/>
-    <col min="60" max="60" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.7109375" customWidth="1"/>
-    <col min="63" max="63" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.140625" customWidth="1"/>
-    <col min="68" max="68" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="13.7109375" customWidth="1"/>
-    <col min="71" max="71" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" customWidth="1"/>
+    <col min="9" max="10" width="13.26953125" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1796875" customWidth="1"/>
+    <col min="14" max="14" width="15.7265625" customWidth="1"/>
+    <col min="15" max="16" width="9.453125" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.26953125" customWidth="1"/>
+    <col min="20" max="20" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7265625" customWidth="1"/>
+    <col min="23" max="23" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.26953125" customWidth="1"/>
+    <col min="28" max="28" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.7265625" customWidth="1"/>
+    <col min="31" max="31" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.54296875" customWidth="1"/>
+    <col min="36" max="36" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.7265625" customWidth="1"/>
+    <col min="39" max="39" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.81640625" customWidth="1"/>
+    <col min="44" max="44" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.7265625" customWidth="1"/>
+    <col min="47" max="47" width="19.453125" customWidth="1"/>
+    <col min="48" max="48" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.54296875" customWidth="1"/>
+    <col min="52" max="52" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.7265625" customWidth="1"/>
+    <col min="55" max="55" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.26953125" customWidth="1"/>
+    <col min="60" max="60" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.7265625" customWidth="1"/>
+    <col min="63" max="63" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.1796875" customWidth="1"/>
+    <col min="68" max="68" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="13.7265625" customWidth="1"/>
+    <col min="71" max="71" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14"/>
-    <row r="2" spans="2:14" ht="23.25">
+    <row r="1" spans="2:14" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="65" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="2:14"/>
-    <row r="4" spans="2:14">
+    <row r="3" spans="2:14" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C4" s="22" t="s">
         <v>200</v>
       </c>
@@ -30252,10 +30250,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C7" s="17"/>
       <c r="D7" s="20" t="s">
         <v>20</v>
@@ -30274,7 +30272,7 @@
       </c>
       <c r="J7" s="29"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C8" s="92" t="s">
         <v>205</v>
       </c>
@@ -30299,7 +30297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15" customHeight="1">
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D9" s="151">
         <f>D8/$D$4</f>
         <v>0.44285714285714284</v>
@@ -30321,20 +30319,20 @@
         <v>0.25714285714285712</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="18.75">
+    <row r="10" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C10" s="64" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C11" s="24" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C13" s="20" t="s">
         <v>208</v>
       </c>
@@ -30372,7 +30370,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C14" s="18" t="s">
         <v>2</v>
       </c>
@@ -30421,7 +30419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C15" s="18" t="s">
         <v>219</v>
       </c>
@@ -30470,7 +30468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C16" s="18" t="s">
         <v>220</v>
       </c>
@@ -30519,7 +30517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C17" s="18" t="s">
         <v>4</v>
       </c>
@@ -30568,7 +30566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C18" s="18" t="s">
         <v>3</v>
       </c>
@@ -30617,7 +30615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C19" s="18" t="s">
         <v>221</v>
       </c>
@@ -30666,7 +30664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C20" s="18" t="s">
         <v>222</v>
       </c>
@@ -30715,10 +30713,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C21" s="17"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C22" s="74" t="s">
         <v>223</v>
       </c>
@@ -30751,13 +30749,13 @@
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="3:14"/>
-    <row r="24" spans="3:14" ht="18.75">
+    <row r="23" spans="3:14" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="3:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C24" s="64" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C25" s="85" t="s">
         <v>208</v>
       </c>
@@ -30777,7 +30775,7 @@
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C26" s="88" t="s">
         <v>2</v>
       </c>
@@ -30795,7 +30793,7 @@
       </c>
       <c r="H26" s="93"/>
     </row>
-    <row r="27" spans="3:14">
+    <row r="27" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C27" s="88" t="s">
         <v>3</v>
       </c>
@@ -30813,7 +30811,7 @@
       </c>
       <c r="H27" s="93"/>
     </row>
-    <row r="28" spans="3:14">
+    <row r="28" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C28" s="88" t="s">
         <v>4</v>
       </c>
@@ -30831,7 +30829,7 @@
       </c>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="3:14">
+    <row r="29" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C29" s="88" t="s">
         <v>220</v>
       </c>
@@ -30849,7 +30847,7 @@
       </c>
       <c r="H29" s="93"/>
     </row>
-    <row r="30" spans="3:14">
+    <row r="30" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C30" s="88" t="s">
         <v>222</v>
       </c>
@@ -30867,7 +30865,7 @@
       </c>
       <c r="H30" s="93"/>
     </row>
-    <row r="31" spans="3:14">
+    <row r="31" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C31" s="88" t="s">
         <v>219</v>
       </c>
@@ -30885,7 +30883,7 @@
       </c>
       <c r="H31" s="93"/>
     </row>
-    <row r="32" spans="3:14">
+    <row r="32" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C32" s="90" t="s">
         <v>221</v>
       </c>
@@ -30903,7 +30901,7 @@
       </c>
       <c r="H32" s="93"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C33" s="74" t="s">
         <v>228</v>
       </c>
@@ -30926,46 +30924,46 @@
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
     </row>
-    <row r="34" spans="2:13"/>
-    <row r="35" spans="2:13"/>
-    <row r="36" spans="2:13"/>
-    <row r="37" spans="2:13" ht="23.25">
+    <row r="34" spans="2:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="2:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="65" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="23.25">
+    <row r="38" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="65"/>
     </row>
-    <row r="39" spans="2:13" ht="23.25">
+    <row r="39" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="65"/>
     </row>
-    <row r="40" spans="2:13" ht="23.25">
+    <row r="40" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="65"/>
     </row>
-    <row r="41" spans="2:13" ht="23.25">
+    <row r="41" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="65"/>
     </row>
-    <row r="42" spans="2:13" ht="23.25">
+    <row r="42" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="65"/>
     </row>
-    <row r="43" spans="2:13" ht="23.25">
+    <row r="43" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="65"/>
     </row>
-    <row r="44" spans="2:13" ht="23.25">
+    <row r="44" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="65"/>
     </row>
-    <row r="45" spans="2:13" ht="23.25">
+    <row r="45" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="65"/>
     </row>
-    <row r="46" spans="2:13" ht="23.25">
+    <row r="46" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="65"/>
     </row>
-    <row r="47" spans="2:13" ht="23.25">
+    <row r="47" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="65"/>
     </row>
-    <row r="48" spans="2:13"/>
-    <row r="49" spans="3:66" ht="14.45" customHeight="1">
+    <row r="48" spans="2:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="3:66" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D49" s="176" t="s">
         <v>230</v>
       </c>
@@ -31046,7 +31044,7 @@
       <c r="BM49" s="174"/>
       <c r="BN49" s="175"/>
     </row>
-    <row r="50" spans="3:66">
+    <row r="50" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C50" s="20" t="s">
         <v>10</v>
       </c>
@@ -31240,7 +31238,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="51" spans="3:66">
+    <row r="51" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C51" s="18" t="str" cm="1">
         <f t="array" ref="C51:C54">_xlfn.UNIQUE(AdopcionIA!$C$6:$C$507)</f>
         <v>Octubre</v>
@@ -31498,7 +31496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:66">
+    <row r="52" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C52" s="18" t="str">
         <v>Noviembre</v>
       </c>
@@ -31755,7 +31753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:66">
+    <row r="53" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C53" s="18" t="str">
         <v>Diciembre</v>
       </c>
@@ -32012,7 +32010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:66">
+    <row r="54" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C54" s="18">
         <v>0</v>
       </c>
@@ -32269,7 +32267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:66">
+    <row r="55" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C55" s="18"/>
       <c r="D55" s="43">
         <f>SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C55,AdopcionIA!J$6:J$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C55,AdopcionIA!O$6:O$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C55,AdopcionIA!T$6:T$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C55,AdopcionIA!Y$6:Y$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C55,AdopcionIA!AD$6:AD$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C55,AdopcionIA!AI$6:AI$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C55,AdopcionIA!AN$6:AN$507)</f>
@@ -32524,7 +32522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:66">
+    <row r="56" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C56" s="18"/>
       <c r="D56" s="43">
         <f>SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C56,AdopcionIA!J$6:J$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C56,AdopcionIA!O$6:O$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C56,AdopcionIA!T$6:T$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C56,AdopcionIA!Y$6:Y$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C56,AdopcionIA!AD$6:AD$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C56,AdopcionIA!AI$6:AI$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C56,AdopcionIA!AN$6:AN$507)</f>
@@ -32779,7 +32777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:66" ht="15" customHeight="1">
+    <row r="57" spans="3:66" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C57" s="18"/>
       <c r="D57" s="43">
         <f>SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C57,AdopcionIA!J$6:J$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C57,AdopcionIA!O$6:O$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C57,AdopcionIA!T$6:T$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C57,AdopcionIA!Y$6:Y$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C57,AdopcionIA!AD$6:AD$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C57,AdopcionIA!AI$6:AI$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C57,AdopcionIA!AN$6:AN$507)</f>
@@ -33034,10 +33032,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:66">
+    <row r="59" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C59" s="17"/>
     </row>
-    <row r="60" spans="3:66">
+    <row r="60" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
       <c r="E60" s="29"/>
@@ -33050,36 +33048,36 @@
       <c r="L60" s="29"/>
       <c r="M60" s="29"/>
     </row>
-    <row r="61" spans="3:66">
+    <row r="61" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C61" s="17"/>
       <c r="G61" s="35"/>
       <c r="H61" s="35"/>
     </row>
-    <row r="62" spans="3:66">
+    <row r="62" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C62" s="17"/>
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
     </row>
-    <row r="63" spans="3:66">
+    <row r="63" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C63" s="17"/>
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
     </row>
-    <row r="64" spans="3:66">
+    <row r="64" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C64" s="17"/>
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
     </row>
-    <row r="65" spans="3:13">
+    <row r="65" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C65" s="17"/>
     </row>
-    <row r="66" spans="3:13">
+    <row r="66" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C66" s="17"/>
     </row>
-    <row r="68" spans="3:13">
+    <row r="68" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C68" s="17"/>
     </row>
-    <row r="69" spans="3:13">
+    <row r="69" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C69" s="29"/>
       <c r="D69" s="29"/>
       <c r="E69" s="29"/>
@@ -33092,39 +33090,39 @@
       <c r="L69" s="29"/>
       <c r="M69" s="29"/>
     </row>
-    <row r="70" spans="3:13">
+    <row r="70" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C70" s="17"/>
       <c r="G70" s="35"/>
       <c r="H70" s="35"/>
     </row>
-    <row r="71" spans="3:13">
+    <row r="71" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C71" s="17"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
     </row>
-    <row r="72" spans="3:13">
+    <row r="72" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C72" s="17"/>
       <c r="G72" s="35"/>
       <c r="H72" s="35"/>
     </row>
-    <row r="73" spans="3:13">
+    <row r="73" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C73" s="17"/>
       <c r="G73" s="35"/>
       <c r="H73" s="35"/>
     </row>
-    <row r="74" spans="3:13">
+    <row r="74" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C74" s="17"/>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
     </row>
-    <row r="75" spans="3:13">
+    <row r="75" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C75" s="17"/>
     </row>
-    <row r="77" spans="3:13"/>
-    <row r="78" spans="3:13"/>
-    <row r="79" spans="3:13"/>
-    <row r="80" spans="3:13"/>
-    <row r="81"/>
+    <row r="77" spans="3:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="3:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="3:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="3:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C14:I20">
     <sortCondition descending="1" ref="G14:G20"/>
@@ -33503,6 +33501,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E080B9D539EE5249B0F7896E1534F47F" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1a88378f58b9ad7590fd740332c19a90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c298b4c-1b69-4120-abb9-a44ffc4bda23" xmlns:ns3="c3e1b4bb-9124-477c-aa49-683b9a26b58f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="910b3ddf48a2c6cdf16d80fb4d738ee7" ns2:_="" ns3:_="">
     <xsd:import namespace="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
@@ -33703,15 +33710,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -33727,13 +33725,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{749E22C5-4A50-411E-A267-99434988BB08}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{749E22C5-4A50-411E-A267-99434988BB08}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>